--- a/biology/Médecine/Montecatini_Terme/Montecatini_Terme.xlsx
+++ b/biology/Médecine/Montecatini_Terme/Montecatini_Terme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Montecatini Terme est une commune italienne de 19 473 habitants située dans la province de Pistoia et la région Toscane en Italie. La station thermale est inscrite depuis le 24 juillet 2021 au patrimoine mondial de l'UNESCO dans la série « Grandes villes d'eaux d'Europe » (en anglais : Great spas of Europe)[1].
+Montecatini Terme est une commune italienne de 19 473 habitants située dans la province de Pistoia et la région Toscane en Italie. La station thermale est inscrite depuis le 24 juillet 2021 au patrimoine mondial de l'UNESCO dans la série « Grandes villes d'eaux d'Europe » (en anglais : Great spas of Europe).
 </t>
         </is>
       </c>
@@ -514,57 +526,277 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Localisation
-Montecatini Terme est située au cœur de la Valdinievole et de la zone humide du marais de Fucecchio, à l'extrémité orientale de la plaine de Lucques, dans la province de Pistoia et la région de la Toscane en Italie centrale.
-Hameaux
-Trois hameaux dépendent de la commune : Nievole, village de 600 habitants, Vico, village dans les collines entre Montecatini Alto et Nievole, et Montecatini Alto, bourg historique, précédemment chef-lieu de la commune sous le nom de Montecatini Val di Nievole.
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montecatini Terme est située au cœur de la Valdinievole et de la zone humide du marais de Fucecchio, à l'extrémité orientale de la plaine de Lucques, dans la province de Pistoia et la région de la Toscane en Italie centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hameaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois hameaux dépendent de la commune : Nievole, village de 600 habitants, Vico, village dans les collines entre Montecatini Alto et Nievole, et Montecatini Alto, bourg historique, précédemment chef-lieu de la commune sous le nom de Montecatini Val di Nievole.
 La commune d'origine s'étendait sur environ 30 km2 et sa population était de 5 400 habitants en 1905. Son territoire était délimité par les communes de Marliana, Serravalle Pistoiese, Monsummano Terme, Buggiano, Massa e Cozzile et Ponte Buggianese et comprenait, outre son chef-lieu, les localités de Bagni di Montecatini (l'actuelle Montecatini Terme) et de Pieve a Nievole.
 En 1905 ces deux frazioni furent érigées en communes autonomes ; en 1940 la commune de Montecatini Val di Nievole fut définitivement supprimée et son territoire divisé entre ceux de Montecatini Terme (nom adopté par la commune de Bagni di Montecatini en 1934) et de Pieve a Nievole. Au moment de la suppression, la commune comptait à peine plus de 3 200 résidents.
 			Montecatini Alto
 			Piazza Giusti
 			Le funiculaire
-Communes limitrophes
-Buggiano (4), Massa e Cozzile (5), Ponte Buggianese (6), Pieve a Nievole (8), Marliana (12) et Serravalle Pistoiese (13).
-Climat
-La station météorologique de Montecatini Terme se trouve à 32 mètres au-dessus du niveau de la mer aux coordonnées géographiques 43° 53′ N, 10° 46′ E. Sur la base de la moyenne trentennale de référence (1961-1990), la température moyenne du mois le plus froid, janvier, est de + 6,3 °C ; celle du mois le plus chaud, juillet, atteint + 24,3 °C. Les précipitations moyennes annuelles, supérieures à 1 000 mm et réparties en moyenne sur 95 jours de pluie, présentent un minimum relatif en été, un pic en automne et un maximum secondaire entre l'hiver et le printemps[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Communes limitrophes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buggiano (4), Massa e Cozzile (5), Ponte Buggianese (6), Pieve a Nievole (8), Marliana (12) et Serravalle Pistoiese (13).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La station météorologique de Montecatini Terme se trouve à 32 mètres au-dessus du niveau de la mer aux coordonnées géographiques 43° 53′ N, 10° 46′ E. Sur la base de la moyenne trentennale de référence (1961-1990), la température moyenne du mois le plus froid, janvier, est de + 6,3 °C ; celle du mois le plus chaud, juillet, atteint + 24,3 °C. Les précipitations moyennes annuelles, supérieures à 1 000 mm et réparties en moyenne sur 95 jours de pluie, présentent un minimum relatif en été, un pic en automne et un maximum secondaire entre l'hiver et le printemps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Infrastructures et transports</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Routes
-Montecatini Terme est distante de 39 km de Florence, 34 de Pise, 21 de Lucques et 12 de Pistoia. La commune est traversée par l'autoroute A11 d'ouest en est. La sortie Montecatini Terme est située sur le territoire de Pieve a Nievole, mais bien reliée avec le centre de la ville. Les routes provinciales et régionales qui traversent le territoire de Montecatini Terme sont la SR435 Lucchese de Pistoia à Collodi, la SR436 Francesca vers Fucecchio, la SP633 Mammianese-Marlianese vers Marliana, la SP22 del Porrione e del Terzo entre Ponte Buggianese et Monsummano Terme, la SP26 Camporcioni vers Chiesina Uzzanese, la SP32 Nievole-Avaglio-Bivio-di-Avaglio, la SP33 Nievole-Casore del Monte-Femminamorta et la SP40 Marlianese vers Serravalle Pistoiese.
-Train et tramway
-La commune est dotée de deux gares sur la ligne Viareggio-Florence. La plus petite, mais la plus centrale, est la gare de Montecatini-Centre. La plus grande, la gare de Montecatini-Monsummano, un important édifice des années trente, est située dans la partie orientale de la ville. Jusqu'en 1938, la ville était traversée par la ligne du tramway Lucca-Monsummano qui assurait le transport de passagers et de marchandises.
-Funiculaire
-Montecatini Terme est reliée au hameau de Montecatini Alto par un funiculaire équipé de wagons d'origine toujours en fonction. Mis en service en 1898, c'est le plus ancien funiculaire au monde[3].
-Autobus
-Le transport public local est assuré par les compagnies Copit et principalement Lazzi dans le cadre du consortium Blubus. Trois lignes de transports urbains et plusieurs lignes extra-urbaines desservent Florence, Pistoia, Lucques, Viareggio, ainsi que le reste de la Valdinievole. La gare routière de Montecatini Terme, près de la principale gare ferroviaire, constitue la plaque tournante des transports publics. Des liaisons extra-urbaines opérées par d'autres compagnies privées, relient la ville avec diverses parties de l'Italie.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Routes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montecatini Terme est distante de 39 km de Florence, 34 de Pise, 21 de Lucques et 12 de Pistoia. La commune est traversée par l'autoroute A11 d'ouest en est. La sortie Montecatini Terme est située sur le territoire de Pieve a Nievole, mais bien reliée avec le centre de la ville. Les routes provinciales et régionales qui traversent le territoire de Montecatini Terme sont la SR435 Lucchese de Pistoia à Collodi, la SR436 Francesca vers Fucecchio, la SP633 Mammianese-Marlianese vers Marliana, la SP22 del Porrione e del Terzo entre Ponte Buggianese et Monsummano Terme, la SP26 Camporcioni vers Chiesina Uzzanese, la SP32 Nievole-Avaglio-Bivio-di-Avaglio, la SP33 Nievole-Casore del Monte-Femminamorta et la SP40 Marlianese vers Serravalle Pistoiese.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Infrastructures et transports</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Train et tramway</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commune est dotée de deux gares sur la ligne Viareggio-Florence. La plus petite, mais la plus centrale, est la gare de Montecatini-Centre. La plus grande, la gare de Montecatini-Monsummano, un important édifice des années trente, est située dans la partie orientale de la ville. Jusqu'en 1938, la ville était traversée par la ligne du tramway Lucca-Monsummano qui assurait le transport de passagers et de marchandises.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Infrastructures et transports</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Funiculaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montecatini Terme est reliée au hameau de Montecatini Alto par un funiculaire équipé de wagons d'origine toujours en fonction. Mis en service en 1898, c'est le plus ancien funiculaire au monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Infrastructures et transports</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autobus</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le transport public local est assuré par les compagnies Copit et principalement Lazzi dans le cadre du consortium Blubus. Trois lignes de transports urbains et plusieurs lignes extra-urbaines desservent Florence, Pistoia, Lucques, Viareggio, ainsi que le reste de la Valdinievole. La gare routière de Montecatini Terme, près de la principale gare ferroviaire, constitue la plaque tournante des transports publics. Des liaisons extra-urbaines opérées par d'autres compagnies privées, relient la ville avec diverses parties de l'Italie.
 			Gare de Montecatini-Centre.
 			Gare de Montecatini-Monsummano
 			Gare du funiculaire à Montecatini Terme
@@ -572,109 +804,223 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'en 1905, Montecatini Terme était, sous le nom de Bagni di Montecatini, une fraction de l'ancienne commune de Montecatini Val di Nievole. En 1940, le territoire de la commune de Montecatini Val di Nievole, définitivement supprimée, est divisé entre celles de Montecatini Terme (nom adopté par la commune de Bagni di Montecatini en 1934) et de Pieve a Nievole. La partie haute de Montecatini Val di Nievole restant sur le territoire de Montecatini Terme a dès lors pris le nom de Montecatini Alto et est à son tour devenue un hameau.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Blason</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Le blason de la commune est régi par le décret royal du 12 août 1908 : « Troncato, al primo di Montecatini che è: d'azzurro al monte di sei colli all'italiana, ristretto, sostenente due leoni affrontati, il tutto d'oro, i leoni tenenti un catino, di rosso cimato da uno scudetto ovato di argento carico di un giglio di rosso; al secondo maneggiato di argento e di azzurro. Motto: « Salus » ».
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Préhistoire et antiquité
-La région de Montecatini est occupée par l'homme depuis les temps préhistoriques. Elle fut probablement fréquentée par des chasseurs itinérants à partir du Paléolithique mais c'est seulement à partir du Mésolithique que de nombreux habitats témoignent de la présence humaine, en particulier sur les collines de la Valdinievole. La première mention de la cité date de 716 de notre ère. En 1164, elle est citée comme une commune libre, mais elle est conquise plus tard par la République de Lucques.
-Moyen Âge et Renaissance
-Au début du XIVe siècle une nouvelle puissance, Florence, apparaît aux confins de la Valdinievole. Les florentins commencent par affaiblir Sienne et Arezzo qui dominent alors la région. Alors que Florence était sur le point de réaliser son projet d'hégémonie, une révolte gibeline dirigée par Uguccione della Faggiola vient ralentir son avancée. Devenu vicaire impérial et seigneur de Pise et Lucques en 1312, Uguccione menace directement Florence. La guerre est inévitable dont l'enjeu est la domination de la Toscane tout entière.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Préhistoire et antiquité</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région de Montecatini est occupée par l'homme depuis les temps préhistoriques. Elle fut probablement fréquentée par des chasseurs itinérants à partir du Paléolithique mais c'est seulement à partir du Mésolithique que de nombreux habitats témoignent de la présence humaine, en particulier sur les collines de la Valdinievole. La première mention de la cité date de 716 de notre ère. En 1164, elle est citée comme une commune libre, mais elle est conquise plus tard par la République de Lucques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Moyen Âge et Renaissance</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début du XIVe siècle une nouvelle puissance, Florence, apparaît aux confins de la Valdinievole. Les florentins commencent par affaiblir Sienne et Arezzo qui dominent alors la région. Alors que Florence était sur le point de réaliser son projet d'hégémonie, une révolte gibeline dirigée par Uguccione della Faggiola vient ralentir son avancée. Devenu vicaire impérial et seigneur de Pise et Lucques en 1312, Uguccione menace directement Florence. La guerre est inévitable dont l'enjeu est la domination de la Toscane tout entière.
 En 1315 Uguccione tente d'assiéger Montecatini, considérée comme une place forte stratégique. La tentative est déjouée par l'excellente position de la forteresse et l'aide des florentins. Le 29 août, se déroule sous les murs de la ville la rencontre décisive : la bataille de Montecatini entre la république de Florence et les condottières Uguccione della Faggiola et Castruccio Castracani. L'armée des guelfes (florentins et alliés) est prise par surprise et écrasée par celle des gibelins. L'année suivante Uguccione est contraint de fuir. Castruccio Castracani degli Antelminelli devient seigneur de Lucques puis de Pise et étend de plus en plus son pouvoir sur la Toscane. En 1323 il tente de s'emparer de l'une des places fortes de Florence, Fucecchio, mais, blessé, il doit se retirer. Commence alors une lente mais inexorable reprise du pouvoir par les florentins qui dominent à nouveau la cité de Montecatini.
-Autour de 1540, les premiers bains sont édifiés aux pieds de Montecatini pour recevoir les eaux thermales déjà connues dans la région. Ils ont pour noms « mediceo » ou « tondo » et « dei merli » ou « della rogna » et sont décrits dans son traité De balneorum Italiae proprietatibus ac virtutibus par Ugolino da Montecatini, fondateur de l'hydrologie[5] qui, selon Alessandro Bicchierai, situe leur édification première en 1370[6].
+Autour de 1540, les premiers bains sont édifiés aux pieds de Montecatini pour recevoir les eaux thermales déjà connues dans la région. Ils ont pour noms « mediceo » ou « tondo » et « dei merli » ou « della rogna » et sont décrits dans son traité De balneorum Italiae proprietatibus ac virtutibus par Ugolino da Montecatini, fondateur de l'hydrologie qui, selon Alessandro Bicchierai, situe leur édification première en 1370.
 Une autre guerre voit à nouveau Montecatini au centre d'un conflit qui commence en 1554. Il a pour protagonistes d'une part Cosme Ier de Médicis, premier grand-duc de Toscane, représentant Florence et ses alliés espagnols, et d'autre part Pietro Strozzi, représentant Sienne et ses alliés français. Le 21 juin Montecatini est occupée par Sienne. La ville ne s'oppose pas à l'occupation, Strozzi étant présenté comme un libérateur par son chef d'armée Cornelio Bentivoglio.
 Forteresse jusqu'alors imprenable, Montecatini est affaiblie par les dures épreuves subies durant des siècles de batailles. Aussi, lorsque les Médicis reviennent à l'attaque avec leurs troupes, la ville retombe entre les mains médicéennes qui la saccagent sans pitié. Cosme, plein de rancœur contre Montecatini qui non seulement s'était laissée conquérir par Sienne sans opposer de résistance mais avait en outre combattu pour ne pas retourner sous la domination des Médicis, ordonne de l'effacer jusque dans ses fondements (« sfasciarla dalle fondamenta »). Jour après jour huit-cents hommes s'acharnent contre les murs, les tours et les maisons. Seuls échappent à la destruction cent-soixante habitations, trois couvents, le palais du Podestà et le palais de Justice.
-XVIIIe siècle
-Ce n'est que dans le dernier quart du XVIIIe siècle que la zone demeurée insalubre du marais de Fucecchio est bonifiée et que l'activité balnéaire reprend. Sous l'égide du grand-duc Léopold conseillé par son médecin personnel Alessandro Bicchierai, les entrepreneurs locaux, rejoints par des entrepreneurs étrangers, construisent des canaux pour évacuer les eaux, récupérer les terres et faciliter ainsi l'utilisation des sources chaudes. Sont alors construits les établissements thermaux : Bagno Regio (1773), Terme Leopoldine (1775) et Thermes Tettuccio (1779).
-XIXe et XXe siècles
-Bagni di Montecatini, petit village au pied de la colline de Montecatini, est né. Au XIXe siècle, La localité fait partie de la commune de Montecatini Val di Nievole qui comprend, outre le bourg historique de Montecatini Alto, les localités de Bagni di Montecatini et de Pieve a Nievole. Au plébiscite de 1860 sur l'annexion du grand-duché de Toscane au royaume de Sardaigne dans le processus d'unification de l'Italie, les « oui » n'obtiennent pas, bien que de peu, la majorité des voix des électeurs (925 sur un total de 1883), symptôme de l'opposition à l'annexion[7]. En 1905 Bagni di Montecatini et Pieve a Nievole sont érigées en communes autonomes. En 1934 Bagni di Montecatini prend le nom de Montecatini Terme. En 1940 la commune de Montecatini Val di Nievole est définitivement supprimée et son territoire divisé entre ceux des deux nouvelles communes de Montecatini Terme, qui conserve la frazione de Montecatini Alto, et de Pieve a Nievole.
-Dans la période entourant le début du XXe siècle, l'offre touristique se diversifie et se perfectionne. Le nombre et la qualité des hôtels s'accroissent. L'architecture et les arts décoratifs prennent un tour nouveau avec l'apparition du stile Liberty représenté par des artistes comme le céramiste Galileo Chini ou l'architecte Raffaello Brizzi (it)[8]. La nécessité de combiner aux cures la détente, le divertissement et le sport se fait jour. Nombre d'établissements à la mode font leur apparition, restaurants, théâtres, boîtes de nuit, casino et des célébrités commencent à fréquenter la ville. Entre la fin du XIXe siècle et les premières décennies du XXe, il n'est pas rare de rencontrer dans les caffè ou dans les allées arborées du parc des personnages tels que Giuseppe Verdi, Pietro Mascagni, Carlo Alberto Salustri, dit Trilussa, Beniamino Gigli, Luigi Pirandello ou Ruggero Leoncavallo qui, après plusieurs séjours, s'y installe définitivement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>XVIIIe siècle</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce n'est que dans le dernier quart du XVIIIe siècle que la zone demeurée insalubre du marais de Fucecchio est bonifiée et que l'activité balnéaire reprend. Sous l'égide du grand-duc Léopold conseillé par son médecin personnel Alessandro Bicchierai, les entrepreneurs locaux, rejoints par des entrepreneurs étrangers, construisent des canaux pour évacuer les eaux, récupérer les terres et faciliter ainsi l'utilisation des sources chaudes. Sont alors construits les établissements thermaux : Bagno Regio (1773), Terme Leopoldine (1775) et Thermes Tettuccio (1779).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>XIXe et XXe siècles</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bagni di Montecatini, petit village au pied de la colline de Montecatini, est né. Au XIXe siècle, La localité fait partie de la commune de Montecatini Val di Nievole qui comprend, outre le bourg historique de Montecatini Alto, les localités de Bagni di Montecatini et de Pieve a Nievole. Au plébiscite de 1860 sur l'annexion du grand-duché de Toscane au royaume de Sardaigne dans le processus d'unification de l'Italie, les « oui » n'obtiennent pas, bien que de peu, la majorité des voix des électeurs (925 sur un total de 1883), symptôme de l'opposition à l'annexion. En 1905 Bagni di Montecatini et Pieve a Nievole sont érigées en communes autonomes. En 1934 Bagni di Montecatini prend le nom de Montecatini Terme. En 1940 la commune de Montecatini Val di Nievole est définitivement supprimée et son territoire divisé entre ceux des deux nouvelles communes de Montecatini Terme, qui conserve la frazione de Montecatini Alto, et de Pieve a Nievole.
+Dans la période entourant le début du XXe siècle, l'offre touristique se diversifie et se perfectionne. Le nombre et la qualité des hôtels s'accroissent. L'architecture et les arts décoratifs prennent un tour nouveau avec l'apparition du stile Liberty représenté par des artistes comme le céramiste Galileo Chini ou l'architecte Raffaello Brizzi (it). La nécessité de combiner aux cures la détente, le divertissement et le sport se fait jour. Nombre d'établissements à la mode font leur apparition, restaurants, théâtres, boîtes de nuit, casino et des célébrités commencent à fréquenter la ville. Entre la fin du XIXe siècle et les premières décennies du XXe, il n'est pas rare de rencontrer dans les caffè ou dans les allées arborées du parc des personnages tels que Giuseppe Verdi, Pietro Mascagni, Carlo Alberto Salustri, dit Trilussa, Beniamino Gigli, Luigi Pirandello ou Ruggero Leoncavallo qui, après plusieurs séjours, s'y installe définitivement.
 Montecatini devient un véritable point de rencontre de renommée internationale où l'on discute de politique et où l'on conclut des affaires. En 1926, sa réputation est telle qu'elle enregistre une fréquentation de 75 000 visiteurs, un chiffre remarquable pour l'époque. Au XXe siècle la ville est devenue l'une des stations thermales d'Italie les plus fréquentées.
-Depuis le 29 juin 2011, un parcours ponctué par plus de deux-cents plaques de bronze, les Passi di Gloria, placées le long de la viale Verdi entre la piazza del Popolo et les Thermes Tettuccio, retrace le passage à Montecatini Terme des personnalités les plus marquantes, du grand-duc Léopold, fondateur de la cité, à Woody Allen[9].
+Depuis le 29 juin 2011, un parcours ponctué par plus de deux-cents plaques de bronze, les Passi di Gloria, placées le long de la viale Verdi entre la piazza del Popolo et les Thermes Tettuccio, retrace le passage à Montecatini Terme des personnalités les plus marquantes, du grand-duc Léopold, fondateur de la cité, à Woody Allen.
 			Portrait photographique de Giuseppe Verdi en 1899 à Montecatini Terme par Pietro Tempestini
 			Guido Baccelli à Montecatini Terme, L'illustrazione del medico, mars 1938
 	Quelques-uns des deux-cents « Passi di Gloria » de la viale Verdi
@@ -694,31 +1040,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hôtel-de-ville
@@ -728,62 +1076,66 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Évolution démographique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La commune compte 19 473 habitants au 31 octobre 2012[10].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commune compte 19 473 habitants au 31 octobre 2012.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Économie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">La commune est un important pôle touristique et hôtelier, de commerces et de services développés autour du thermalisme, l'activité principale. Le rôle de l'industrie et de l'agriculture dans l'économie de la commune est tout à fait marginal.
 			La Locanda maggiore où descendait Giuseppe Verdi
@@ -794,66 +1146,70 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ville dispose de huit écoles maternelles (sept publiques et une privée), de huit écoles primaires (six publiques et deux prvées), de deux collèges (un public et un privé) et de trois lycées (deux publics et un privé)[11].
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ville dispose de huit écoles maternelles (sept publiques et une privée), de huit écoles primaires (six publiques et deux prvées), de deux collèges (un public et un privé) et de trois lycées (deux publics et un privé).
 Montecatini Terme accueille également le siège de l'Institut de formation professionnelle pour les services hôteliers et la restauration Ferdinando Martini.
 </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Montecatini, connue pour avoir été le lieu de villégiature de Giuseppe Verdi, accueille périodiquement des manifestations d'intérêt culturel et d'importance nationale et internationale.
-En 2008 s'est ouvert un cycle d'expositions suivi, du 16 juillet 2009 au 18 janvier 2010, par une anthologie consacrée au mouvement des Macchiaioli, Il nuovo dopo la Macchia[12] puis, au printemps été 2011 par une exposition consacrée aux Santi Poeti Navigatori[13] lors de laquelle de nombreuses œuvres, parmi lesquelles les portraits d'Alexandre de Médicis et de Cosme Ier de Toscane par l'atelier du Bronzino, sont prêtées par le musée des Offices.
+En 2008 s'est ouvert un cycle d'expositions suivi, du 16 juillet 2009 au 18 janvier 2010, par une anthologie consacrée au mouvement des Macchiaioli, Il nuovo dopo la Macchia puis, au printemps été 2011 par une exposition consacrée aux Santi Poeti Navigatori lors de laquelle de nombreuses œuvres, parmi lesquelles les portraits d'Alexandre de Médicis et de Cosme Ier de Toscane par l'atelier du Bronzino, sont prêtées par le musée des Offices.
 Un festival international du court métrage (it) se tient également à Montecatini Terme. La bibliothèque municipale est abritée par la Villa Forini Lippi (it), immergée dans un immense parc, à la limite occidentale de la ville.
 			Portrait du duc Alexandre
 			Affiche de l'exposition Santi Poeti Navigatori
@@ -866,97 +1222,103 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cialda di Montecatini (it) est un dessert très recherché réalisé avec des œufs et du sucre.
 </t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Fêtes et commémorations</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">La sainte patronne de Montecatini Terme est Santa Barbara. La fête patronale se déroule le 4 décembre.
 </t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Sport</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Pala Madigan (it), complexe sportif destiné au sport principal, le volley-ball, et accueillant le Sporting Club Montecatini Terme (it) qui joue en DNB (it)
 Grand Prix de la Ville de Montecatini, course de trot attelé, réservée aux chevaux de plus de quatre ans, se déroulant le 15 août sur l'hippodrome Sesena (it)
-Montecatini Terme a accueilli la finale de l'édition 1978 de Jeux sans frontières[14].
+Montecatini Terme a accueilli la finale de l'édition 1978 de Jeux sans frontières.
 Du 5 au 16 août 1986 s'est déroulée à Montecatini Terme, la 30e édition des championnats du monde de pentathlon moderne, au cours de laquelle Carlo Massullo a remporté le titre individuel et l'équipe nationale italienne le titre par équipes.
 En 1986 et 2006, les Jeux Mondiaux de la Médecine et de la Santé se déroulent à Montecatini Terme.
 La Mitropa Cup d'échecs de 1997 s'est tenue à Montecatini Terme.
@@ -969,43 +1331,115 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Patrimoine</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'UNESCO a inscrit le 24 juillet 2021 Montecatini Terme au patrimoine mondial dans la série « Grandes villes d'eaux d'Europe » (en anglais : Great spas of Europe)[15].
-Thermes
-Thermes Tettuccio
+L'UNESCO a inscrit le 24 juillet 2021 Montecatini Terme au patrimoine mondial dans la série « Grandes villes d'eaux d'Europe » (en anglais : Great spas of Europe).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Patrimoine</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Thermes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thermes Tettuccio
 			Institut thermal Grocco
 			Thermes Torretta
 			Thermes Tettuccio
 			Thermes Excelsior
 			Thermes Tamerici
-Architecture civile
-Hôtel de ville (it)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Patrimoine</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Architecture civile</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hôtel de ville (it)
 Villa Forini Lippi (it)
 Padiglioncino Tamerici (it)
 Théâtre Verdi (it)
@@ -1013,8 +1447,43 @@
 			Plaque de la rue San Martino
 			Escalier dans Montecatini Terme
 			Vue sur Montecatini Alto depuis la rue Verdi
-Architecture religieuse
-Église Santa Maria Assunta
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Patrimoine</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Architecture religieuse</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Église Santa Maria Assunta
 Chiesa dei Santi Jacopo e Filippo
 Église San Pietro
 Couvent et église Santa Maria a Ripa
@@ -1023,63 +1492,205 @@
 			L'intérieur de la “Chiesa dei Santi Jacopo e Filippo”.
 			Vue de l'église Santa Maria Assunta depuis la via Verdi.
 			Intérieur de Santa Maria Assunta.
-Patrimoine naturel
-Grotte Maona (it)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Patrimoine</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Patrimoine naturel</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Grotte Maona (it)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Personnalités liées à la commune</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Naissance à Montecatini
-Alvaro Biagini (1935), footballeur et entraîneur
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Naissance à Montecatini</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Alvaro Biagini (1935), footballeur et entraîneur
 Francesca Dini (XXe siècle), historienne de l'art
 Fabio Galante (1973), joueur de football
 Carlo Galli (1931), footballeur
 Riccardo Magrini (1954), coureur cycliste
 Amos Mariani (1931-2007), footballeur international et entraîneur
 Massimo Masini (1945), joueur et entraîneur de basket-ball
-Mario Tullio Montano (1944), sabreur
-Décès à Montecatini
-Giuseppe Baldo (1914-2007), footballeur
+Mario Tullio Montano (1944), sabreur</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Personnalités liées à la commune</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Décès à Montecatini</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Giuseppe Baldo (1914-2007), footballeur
 Christian Dior (1905–1957), grand couturier
 Attilio Ferraris (1904-1947), footballeur
 Ruggero Leoncavallo (1857–1919), compositeur
 Amos Mariani (1931-2007), footballeur international et entraîneur
 Antonio Mordini (1819-1902), patriote et sénateur du royaume d'Italie
-Bruno Pasquini (1914-1995), coureur cycliste
-Personnalités actives à Montecatini
-Alessandro Bicchierai (1734-1797), professeur de médecine, auteur d'un traité sur les propriétés des eaux de Montecatini
+Bruno Pasquini (1914-1995), coureur cycliste</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Personnalités liées à la commune</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Personnalités actives à Montecatini</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Alessandro Bicchierai (1734-1797), professeur de médecine, auteur d'un traité sur les propriétés des eaux de Montecatini
 Galileo Chini (1873-1956 ), peintre, architecte, céramiste. Il a longtemps travaillé à Montecatini.
 Igor Efimov (1960), joueur d'échecs en résidence à Montecatini
 Pietro Grocco (1856-1916), professeur de médecine, directeur des thermes de Montecatini
 Giovanni Michelucci (1891-1990), architecte actif à Montecatini
-Pietro Tempestini (XIXe-XXe siècles), photographe actif à Montecatini
-Joueurs du Sporting Club Montecatini Terme
-Dainius Adomaitis
+Pietro Tempestini (XIXe-XXe siècles), photographe actif à Montecatini</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montecatini_Terme</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Personnalités liées à la commune</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Joueurs du Sporting Club Montecatini Terme</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Dainius Adomaitis
 Maceo Baston
 Corsley Edwards
 Michael Hicks
